--- a/Tables/Sources/gameplay/MarinLevelConfig.xlsx
+++ b/Tables/Sources/gameplay/MarinLevelConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17020"/>
+    <workbookView windowWidth="25600" windowHeight="10180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48">
   <si>
     <t>ID</t>
   </si>
@@ -31,9 +31,6 @@
     <t>敌人头像</t>
   </si>
   <si>
-    <t>敌人配置，格式ID:|数量|功力;…</t>
-  </si>
-  <si>
     <t>奖励</t>
   </si>
   <si>
@@ -67,9 +64,6 @@
     <t>EnemyHeadIcon</t>
   </si>
   <si>
-    <t>Enemies</t>
-  </si>
-  <si>
     <t>Reward</t>
   </si>
   <si>
@@ -83,9 +77,6 @@
   </si>
   <si>
     <t>HeadIcon</t>
-  </si>
-  <si>
-    <t>new_BattleFieldConfigSO</t>
   </si>
   <si>
     <t>Item|1001|10;Exp_Role|100;Coin|100</t>
@@ -175,9 +166,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -196,9 +187,68 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -210,6 +260,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -220,112 +324,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -337,14 +336,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -367,181 +358,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -573,38 +564,26 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -639,6 +618,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -649,169 +658,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1145,26 +1136,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelCol="7"/>
   <cols>
     <col min="4" max="4" width="18.4375" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
-    <col min="6" max="6" width="26.7767857142857" customWidth="1"/>
-    <col min="7" max="7" width="33.4375" customWidth="1"/>
-    <col min="8" max="8" width="12.6428571428571" customWidth="1"/>
-    <col min="9" max="9" width="11.3125" customWidth="1"/>
-    <col min="13" max="13" width="12.4375" customWidth="1"/>
-    <col min="14" max="14" width="24.8839285714286" customWidth="1"/>
-    <col min="22" max="22" width="31" customWidth="1"/>
+    <col min="6" max="6" width="33.4375" customWidth="1"/>
+    <col min="7" max="7" width="12.6428571428571" customWidth="1"/>
+    <col min="8" max="8" width="11.3125" customWidth="1"/>
+    <col min="12" max="12" width="12.4375" customWidth="1"/>
+    <col min="13" max="13" width="24.8839285714286" customWidth="1"/>
+    <col min="21" max="21" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1189,98 +1179,86 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>101</v>
       </c>
@@ -1288,28 +1266,25 @@
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D5" s="2">
         <v>0</v>
       </c>
       <c r="E5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5">
+        <v>1000</v>
+      </c>
+      <c r="H5" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5">
-        <v>1000</v>
-      </c>
-      <c r="I5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>102</v>
       </c>
@@ -1317,28 +1292,25 @@
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6">
+        <v>1000</v>
+      </c>
+      <c r="H6" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6">
-        <v>1000</v>
-      </c>
-      <c r="I6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>103</v>
       </c>
@@ -1346,28 +1318,25 @@
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D7" s="2">
         <v>0</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H7">
-        <v>1000</v>
-      </c>
-      <c r="I7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="F7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7">
+        <v>1000</v>
+      </c>
+      <c r="H7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>104</v>
       </c>
@@ -1375,28 +1344,25 @@
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8">
-        <v>1000</v>
-      </c>
-      <c r="I8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="F8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8">
+        <v>1000</v>
+      </c>
+      <c r="H8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>105</v>
       </c>
@@ -1404,28 +1370,25 @@
         <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D9" s="2">
         <v>0</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9">
-        <v>1000</v>
-      </c>
-      <c r="I9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="F9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9">
+        <v>1000</v>
+      </c>
+      <c r="H9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>106</v>
       </c>
@@ -1433,28 +1396,25 @@
         <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" t="s">
-        <v>30</v>
-      </c>
-      <c r="H10">
-        <v>1000</v>
-      </c>
-      <c r="I10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="F10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10">
+        <v>1000</v>
+      </c>
+      <c r="H10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>107</v>
       </c>
@@ -1462,28 +1422,25 @@
         <v>1</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D11" s="2">
         <v>0</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" t="s">
-        <v>24</v>
-      </c>
-      <c r="H11">
-        <v>1000</v>
-      </c>
-      <c r="I11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="F11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11">
+        <v>1000</v>
+      </c>
+      <c r="H11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>108</v>
       </c>
@@ -1491,28 +1448,25 @@
         <v>1</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H12">
-        <v>1000</v>
-      </c>
-      <c r="I12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="F12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12">
+        <v>1000</v>
+      </c>
+      <c r="H12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13">
         <v>109</v>
       </c>
@@ -1520,28 +1474,25 @@
         <v>1</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D13" s="2">
         <v>0</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" t="s">
-        <v>30</v>
-      </c>
-      <c r="H13">
-        <v>1000</v>
-      </c>
-      <c r="I13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="F13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13">
+        <v>1000</v>
+      </c>
+      <c r="H13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14">
         <v>110</v>
       </c>
@@ -1549,28 +1500,25 @@
         <v>1</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" t="s">
-        <v>24</v>
-      </c>
-      <c r="H14">
-        <v>1000</v>
-      </c>
-      <c r="I14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="F14" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14">
+        <v>1000</v>
+      </c>
+      <c r="H14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15">
         <v>111</v>
       </c>
@@ -1578,28 +1526,25 @@
         <v>1</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D15" s="2">
         <v>0</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15" t="s">
-        <v>28</v>
-      </c>
-      <c r="H15">
-        <v>1000</v>
-      </c>
-      <c r="I15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="F15" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15">
+        <v>1000</v>
+      </c>
+      <c r="H15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16">
         <v>112</v>
       </c>
@@ -1607,28 +1552,25 @@
         <v>1</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G16" t="s">
-        <v>30</v>
-      </c>
-      <c r="H16">
-        <v>1000</v>
-      </c>
-      <c r="I16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="F16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16">
+        <v>1000</v>
+      </c>
+      <c r="H16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17">
         <v>113</v>
       </c>
@@ -1636,28 +1578,25 @@
         <v>1</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D17" s="2">
         <v>0</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G17" t="s">
-        <v>24</v>
-      </c>
-      <c r="H17">
-        <v>1000</v>
-      </c>
-      <c r="I17" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="F17" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17">
+        <v>1000</v>
+      </c>
+      <c r="H17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18">
         <v>114</v>
       </c>
@@ -1665,28 +1604,25 @@
         <v>1</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G18" t="s">
-        <v>28</v>
-      </c>
-      <c r="H18">
-        <v>1000</v>
-      </c>
-      <c r="I18" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="F18" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18">
+        <v>1000</v>
+      </c>
+      <c r="H18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19">
         <v>115</v>
       </c>
@@ -1694,28 +1630,25 @@
         <v>1</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D19" s="2">
         <v>0</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G19" t="s">
-        <v>30</v>
-      </c>
-      <c r="H19">
-        <v>1000</v>
-      </c>
-      <c r="I19" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="F19" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19">
+        <v>1000</v>
+      </c>
+      <c r="H19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20">
         <v>116</v>
       </c>
@@ -1723,28 +1656,25 @@
         <v>1</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G20" t="s">
-        <v>24</v>
-      </c>
-      <c r="H20">
-        <v>1000</v>
-      </c>
-      <c r="I20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="F20" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20">
+        <v>1000</v>
+      </c>
+      <c r="H20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21">
         <v>117</v>
       </c>
@@ -1752,28 +1682,25 @@
         <v>1</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D21" s="2">
         <v>0</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" t="s">
-        <v>28</v>
-      </c>
-      <c r="H21">
-        <v>1000</v>
-      </c>
-      <c r="I21" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="F21" t="s">
+        <v>25</v>
+      </c>
+      <c r="G21">
+        <v>1000</v>
+      </c>
+      <c r="H21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22">
         <v>118</v>
       </c>
@@ -1781,28 +1708,25 @@
         <v>1</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G22" t="s">
-        <v>30</v>
-      </c>
-      <c r="H22">
-        <v>1000</v>
-      </c>
-      <c r="I22" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="F22" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22">
+        <v>1000</v>
+      </c>
+      <c r="H22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23">
         <v>119</v>
       </c>
@@ -1810,28 +1734,25 @@
         <v>1</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D23" s="2">
         <v>0</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G23" t="s">
-        <v>24</v>
-      </c>
-      <c r="H23">
-        <v>1000</v>
-      </c>
-      <c r="I23" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="F23" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23">
+        <v>1000</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24">
         <v>120</v>
       </c>
@@ -1839,25 +1760,22 @@
         <v>1</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G24" t="s">
-        <v>28</v>
-      </c>
-      <c r="H24">
-        <v>1000</v>
-      </c>
-      <c r="I24" t="s">
-        <v>50</v>
+        <v>20</v>
+      </c>
+      <c r="F24" t="s">
+        <v>25</v>
+      </c>
+      <c r="G24">
+        <v>1000</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="4:4">
